--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncsy\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C183250-0134-844D-AA10-75375100C696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD3665-A506-4790-8B47-02E758815E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
     <sheet name="QA1-short" sheetId="5" r:id="rId2"/>
     <sheet name="QA2-all" sheetId="6" r:id="rId3"/>
-    <sheet name="QA2-short" sheetId="3" r:id="rId4"/>
-    <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
-    <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
+    <sheet name="QA2-short (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="QA2-short" sheetId="3" r:id="rId5"/>
+    <sheet name="QA3-all" sheetId="1" r:id="rId6"/>
+    <sheet name="QA3-short" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4516,7 +4517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4814,17 +4815,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4993,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5986,7 +5987,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6308,7 +6309,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6756,7 +6757,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7120,7 +7121,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8212,7 +8213,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8240,7 +8241,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8296,7 +8297,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8492,7 +8493,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8716,7 +8717,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9058,17 +9059,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9086,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9238,7 +9239,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -9349,17 +9350,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126431-3714-5A42-8C23-7F054B5E2FB1}">
   <dimension ref="A1:D302"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="223" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9457,7 +9458,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9499,7 +9500,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9667,7 +9668,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10241,7 +10242,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10297,7 +10298,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10353,7 +10354,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10367,7 +10368,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10395,7 +10396,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10409,7 +10410,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10731,7 +10732,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10857,7 +10858,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10885,7 +10886,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11011,7 +11012,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11095,7 +11096,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11109,7 +11110,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11277,7 +11278,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11333,7 +11334,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11431,7 +11432,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11515,7 +11516,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11711,7 +11712,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11781,7 +11782,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11823,7 +11824,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11893,7 +11894,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11921,7 +11922,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12047,7 +12048,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12201,7 +12202,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12243,7 +12244,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12285,7 +12286,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12327,7 +12328,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12369,7 +12370,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12397,7 +12398,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12411,7 +12412,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12439,7 +12440,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12663,7 +12664,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12873,7 +12874,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12915,7 +12916,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -12957,7 +12958,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13083,7 +13084,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13111,7 +13112,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13125,7 +13126,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13181,7 +13182,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13195,7 +13196,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13209,7 +13210,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13307,7 +13308,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13349,7 +13350,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13377,7 +13378,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13573,7 +13574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13593,20 +13594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CBF3B8-96A9-43D1-898A-FCB7B6C80EB4}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="223" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13619,11 +13620,8 @@
       <c r="D1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13636,11 +13634,8 @@
       <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13653,11 +13648,8 @@
       <c r="D3" t="s">
         <v>307</v>
       </c>
-      <c r="E3" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13670,11 +13662,8 @@
       <c r="D4" t="s">
         <v>309</v>
       </c>
-      <c r="E4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13687,11 +13676,8 @@
       <c r="D5" t="s">
         <v>311</v>
       </c>
-      <c r="E5" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13704,11 +13690,8 @@
       <c r="D6" t="s">
         <v>313</v>
       </c>
-      <c r="E6" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13721,11 +13704,8 @@
       <c r="D7" t="s">
         <v>491</v>
       </c>
-      <c r="E7" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -13738,11 +13718,8 @@
       <c r="D8" t="s">
         <v>493</v>
       </c>
-      <c r="E8" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -13755,11 +13732,8 @@
       <c r="D9" t="s">
         <v>495</v>
       </c>
-      <c r="E9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -13772,11 +13746,8 @@
       <c r="D10" t="s">
         <v>480</v>
       </c>
-      <c r="E10" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -13789,11 +13760,8 @@
       <c r="D11" t="s">
         <v>369</v>
       </c>
-      <c r="E11" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -13806,11 +13774,8 @@
       <c r="D12" t="s">
         <v>528</v>
       </c>
-      <c r="E12" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -13823,11 +13788,8 @@
       <c r="D13" t="s">
         <v>652</v>
       </c>
-      <c r="E13" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -13840,11 +13802,8 @@
       <c r="D14" t="s">
         <v>557</v>
       </c>
-      <c r="E14" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -13857,11 +13816,8 @@
       <c r="D15" t="s">
         <v>482</v>
       </c>
-      <c r="E15" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -13873,9 +13829,6 @@
       </c>
       <c r="D16" t="s">
         <v>656</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -13884,6 +13837,297 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" t="s">
+        <v>480</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D14" t="s">
+        <v>557</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C15" t="s">
+        <v>654</v>
+      </c>
+      <c r="D15" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" t="s">
+        <v>656</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F80EE-B930-AE45-9D4A-163325A2F9E5}">
   <dimension ref="A1:D302"/>
   <sheetViews>
@@ -13891,13 +14135,13 @@
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13911,7 +14155,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13925,7 +14169,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13939,7 +14183,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13953,7 +14197,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13967,7 +14211,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13981,7 +14225,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13995,7 +14239,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14009,7 +14253,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +14267,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14037,7 +14281,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14051,7 +14295,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14065,7 +14309,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14079,7 +14323,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14093,7 +14337,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14107,7 +14351,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14121,7 +14365,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14135,7 +14379,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14149,7 +14393,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14163,7 +14407,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14177,7 +14421,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14191,7 +14435,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14205,7 +14449,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14219,7 +14463,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14233,7 +14477,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14247,7 +14491,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14261,7 +14505,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14275,7 +14519,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14289,7 +14533,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14303,7 +14547,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14317,7 +14561,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14331,7 +14575,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14345,7 +14589,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14359,7 +14603,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14373,7 +14617,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14387,7 +14631,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14401,7 +14645,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14415,7 +14659,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14429,7 +14673,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14443,7 +14687,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14457,7 +14701,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14471,7 +14715,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14485,7 +14729,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14499,7 +14743,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14513,7 +14757,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14527,7 +14771,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14541,7 +14785,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14555,7 +14799,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14569,7 +14813,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14583,7 +14827,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14597,7 +14841,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14611,7 +14855,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14625,7 +14869,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14639,7 +14883,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14653,7 +14897,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14667,7 +14911,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14681,7 +14925,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14695,7 +14939,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14709,7 +14953,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14723,7 +14967,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14737,7 +14981,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14751,7 +14995,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14765,7 +15009,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14779,7 +15023,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14793,7 +15037,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14807,7 +15051,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14821,7 +15065,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14835,7 +15079,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14849,7 +15093,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14863,7 +15107,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14877,7 +15121,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14891,7 +15135,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -14905,7 +15149,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -14919,7 +15163,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -14933,7 +15177,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -14947,7 +15191,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -14961,7 +15205,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -14975,7 +15219,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -14989,7 +15233,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15003,7 +15247,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15017,7 +15261,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15031,7 +15275,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15045,7 +15289,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15059,7 +15303,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15073,7 +15317,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15087,7 +15331,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15101,7 +15345,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15115,7 +15359,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15129,7 +15373,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15143,7 +15387,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15157,7 +15401,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15171,7 +15415,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15185,7 +15429,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15199,7 +15443,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15213,7 +15457,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15227,7 +15471,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15241,7 +15485,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15255,7 +15499,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15269,7 +15513,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15283,7 +15527,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15297,7 +15541,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15311,7 +15555,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15325,7 +15569,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15339,7 +15583,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15353,7 +15597,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15367,7 +15611,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15381,7 +15625,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15395,7 +15639,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15409,7 +15653,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15423,7 +15667,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15437,7 +15681,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15451,7 +15695,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15465,7 +15709,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15479,7 +15723,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15493,7 +15737,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15507,7 +15751,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15521,7 +15765,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15535,7 +15779,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15549,7 +15793,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15563,7 +15807,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15577,7 +15821,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15591,7 +15835,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15605,7 +15849,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15619,7 +15863,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15633,7 +15877,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15647,7 +15891,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15661,7 +15905,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15675,7 +15919,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15689,7 +15933,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15703,7 +15947,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15717,7 +15961,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15731,7 +15975,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15745,7 +15989,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15759,7 +16003,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15773,7 +16017,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15787,7 +16031,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15801,7 +16045,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15815,7 +16059,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15829,7 +16073,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15843,7 +16087,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15857,7 +16101,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15871,7 +16115,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15885,7 +16129,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15899,7 +16143,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15913,7 +16157,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15927,7 +16171,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15941,7 +16185,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15955,7 +16199,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15969,7 +16213,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15983,7 +16227,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -15997,7 +16241,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16011,7 +16255,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16025,7 +16269,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16039,7 +16283,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16053,7 +16297,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16067,7 +16311,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16081,7 +16325,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16095,7 +16339,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16109,7 +16353,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16123,7 +16367,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16137,7 +16381,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16151,7 +16395,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16165,7 +16409,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16179,7 +16423,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16193,7 +16437,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16207,7 +16451,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16221,7 +16465,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16235,7 +16479,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16249,7 +16493,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16263,7 +16507,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16277,7 +16521,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16291,7 +16535,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16305,7 +16549,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16319,7 +16563,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16333,7 +16577,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16347,7 +16591,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16361,7 +16605,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16375,7 +16619,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16389,7 +16633,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16403,7 +16647,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16417,7 +16661,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16431,7 +16675,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16445,7 +16689,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16459,7 +16703,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16473,7 +16717,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16487,7 +16731,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16501,7 +16745,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16515,7 +16759,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16529,7 +16773,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16543,7 +16787,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16557,7 +16801,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16571,7 +16815,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16585,7 +16829,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16599,7 +16843,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16613,7 +16857,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16627,7 +16871,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16641,7 +16885,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16655,7 +16899,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16669,7 +16913,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16683,7 +16927,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16697,7 +16941,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16711,7 +16955,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16725,7 +16969,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16739,7 +16983,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16753,7 +16997,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16767,7 +17011,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16781,7 +17025,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16795,7 +17039,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16809,7 +17053,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16823,7 +17067,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16837,7 +17081,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16851,7 +17095,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16865,7 +17109,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16879,7 +17123,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16893,7 +17137,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -16907,7 +17151,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -16921,7 +17165,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -16935,7 +17179,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -16949,7 +17193,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -16963,7 +17207,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -16977,7 +17221,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -16991,7 +17235,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17005,7 +17249,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17019,7 +17263,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17033,7 +17277,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17047,7 +17291,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17061,7 +17305,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17075,7 +17319,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17089,7 +17333,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17103,7 +17347,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17117,7 +17361,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17131,7 +17375,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17145,7 +17389,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17159,7 +17403,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17173,7 +17417,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17187,7 +17431,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17201,7 +17445,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17215,7 +17459,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17229,7 +17473,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17243,7 +17487,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17257,7 +17501,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17271,7 +17515,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17285,7 +17529,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17299,7 +17543,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17313,7 +17557,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17327,7 +17571,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17341,7 +17585,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17355,7 +17599,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17369,7 +17613,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17383,7 +17627,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17397,7 +17641,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17411,7 +17655,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17425,7 +17669,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17439,7 +17683,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17453,7 +17697,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17467,7 +17711,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17481,7 +17725,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17495,7 +17739,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17509,7 +17753,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17523,7 +17767,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17537,7 +17781,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17551,7 +17795,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17565,7 +17809,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17579,7 +17823,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17593,7 +17837,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17607,7 +17851,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17621,7 +17865,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17635,7 +17879,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17649,7 +17893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17663,7 +17907,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17921,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17691,7 +17935,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17705,7 +17949,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17719,7 +17963,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17733,7 +17977,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17747,7 +17991,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17761,7 +18005,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17775,7 +18019,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17789,7 +18033,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17803,7 +18047,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17817,7 +18061,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17831,7 +18075,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17845,7 +18089,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17859,7 +18103,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17873,7 +18117,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17887,7 +18131,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -17901,7 +18145,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -17915,7 +18159,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -17929,7 +18173,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -17943,7 +18187,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -17957,7 +18201,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -17971,7 +18215,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -17985,7 +18229,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -17999,7 +18243,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18013,7 +18257,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18027,7 +18271,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18041,7 +18285,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18055,7 +18299,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18069,7 +18313,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18083,7 +18327,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18097,7 +18341,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18111,7 +18355,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18130,21 +18374,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18158,7 +18402,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18172,7 +18416,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18186,7 +18430,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18200,7 +18444,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -18214,7 +18458,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -18228,7 +18472,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -18242,7 +18486,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -18256,7 +18500,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -18270,7 +18514,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -18284,7 +18528,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -18298,7 +18542,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -18312,7 +18556,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -18326,7 +18570,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
